--- a/target/classes/Adddriver.xlsx
+++ b/target/classes/Adddriver.xlsx
@@ -81,13 +81,13 @@
     <t>600028</t>
   </si>
   <si>
-    <t>Selvam</t>
-  </si>
-  <si>
-    <t>Sekar Selvam</t>
-  </si>
-  <si>
-    <t>Code SS - 293</t>
+    <t>Rajinikanth</t>
+  </si>
+  <si>
+    <t>Sivaji</t>
+  </si>
+  <si>
+    <t>Code RS - 294</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -480,10 +480,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>23</v>

--- a/target/classes/Adddriver.xlsx
+++ b/target/classes/Adddriver.xlsx
@@ -81,13 +81,13 @@
     <t>600028</t>
   </si>
   <si>
-    <t>Rajinikanth</t>
-  </si>
-  <si>
-    <t>Sivaji</t>
-  </si>
-  <si>
-    <t>Code RS - 294</t>
+    <t>Aarya</t>
+  </si>
+  <si>
+    <t>Surya</t>
+  </si>
+  <si>
+    <t>Code AS - 295</t>
   </si>
 </sst>
 </file>

--- a/target/classes/Adddriver.xlsx
+++ b/target/classes/Adddriver.xlsx
@@ -81,13 +81,13 @@
     <t>600028</t>
   </si>
   <si>
-    <t>Aarya</t>
-  </si>
-  <si>
-    <t>Surya</t>
-  </si>
-  <si>
-    <t>Code AS - 295</t>
+    <t>Kartik</t>
+  </si>
+  <si>
+    <t>Aaryan</t>
+  </si>
+  <si>
+    <t>Code KA - 298</t>
   </si>
 </sst>
 </file>
